--- a/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/alp11_sfu_ca/Documents/SFU/2. Terms/09. 2025_Fall/Discourse Lab/Projects/fake_news_over_time/data/Fakespeak-ENG/Analysis_output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_51F078ACE1F5B5743BFF8B60658A41F86337DEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26257BE3-5BD6-4230-A0C0-D0DCB22482E0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
     <sheet name="2023" sheetId="5" r:id="rId5"/>
     <sheet name="2024" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1287,8 +1293,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,13 +1357,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1395,7 +1409,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1429,6 +1443,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1463,9 +1478,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1638,14 +1654,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="29.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1667,7 +1688,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1678,7 +1699,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1689,7 +1710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1700,7 +1721,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1711,7 +1732,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1722,7 +1743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1733,7 +1754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1755,7 +1776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1766,7 +1787,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1777,7 +1798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1799,7 +1820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1810,7 +1831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1821,7 +1842,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1832,7 +1853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1843,7 +1864,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1854,7 +1875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1865,7 +1886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1876,7 +1897,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1887,7 +1908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1909,7 +1930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1920,7 +1941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1931,7 +1952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1942,7 +1963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1953,7 +1974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1964,7 +1985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1975,7 +1996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1986,7 +2007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1997,7 +2018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2008,7 +2029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2019,7 +2040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2030,7 +2051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2041,7 +2062,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2063,7 +2084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2085,7 +2106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2096,7 +2117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2129,7 +2150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2140,7 +2161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2151,7 +2172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2162,7 +2183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2173,7 +2194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2184,7 +2205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2195,7 +2216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2206,7 +2227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2217,7 +2238,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2228,7 +2249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2239,7 +2260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2250,7 +2271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2272,7 +2293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2283,7 +2304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2294,7 +2315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2305,7 +2326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2316,7 +2337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2327,7 +2348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2338,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2349,7 +2370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2360,7 +2381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2371,7 +2392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2382,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2393,7 +2414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2404,7 +2425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2415,7 +2436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2426,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2437,7 +2458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2448,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2459,7 +2480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2470,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2481,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2492,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2503,7 +2524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3</v>
       </c>
@@ -2514,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2525,7 +2546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3</v>
       </c>
@@ -2536,7 +2557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -2547,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2558,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2580,7 +2601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2591,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2602,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2613,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -2624,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2635,7 +2656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2657,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2668,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2690,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2701,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2712,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2734,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2745,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2756,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2767,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2778,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>4</v>
       </c>
@@ -2789,7 +2810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2800,7 +2821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>4</v>
       </c>
@@ -2811,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -2822,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4</v>
       </c>
@@ -2833,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>4</v>
       </c>
@@ -2844,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>4</v>
       </c>
@@ -2855,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>4</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2877,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2888,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2899,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2910,7 +2931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2921,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2932,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2943,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2954,7 +2975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2965,7 +2986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2976,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -2998,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3009,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3020,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3042,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3053,7 +3074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -3064,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3075,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3092,14 +3113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3121,7 +3142,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3132,7 +3153,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3143,7 +3164,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3154,7 +3175,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3165,7 +3186,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3176,7 +3197,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3198,7 +3219,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3209,7 +3230,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3220,7 +3241,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3231,7 +3252,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3242,7 +3263,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3253,7 +3274,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3264,7 +3285,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3275,7 +3296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3286,7 +3307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3297,7 +3318,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3308,7 +3329,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3319,7 +3340,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3330,7 +3351,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3341,7 +3362,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3352,7 +3373,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3363,7 +3384,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3374,7 +3395,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3385,7 +3406,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3396,7 +3417,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3407,7 +3428,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3418,7 +3439,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3429,7 +3450,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3440,7 +3461,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3451,7 +3472,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3462,7 +3483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3473,7 +3494,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3484,7 +3505,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3506,7 +3527,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3517,7 +3538,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3528,7 +3549,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3539,7 +3560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3550,7 +3571,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3561,7 +3582,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3572,7 +3593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3583,7 +3604,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3594,7 +3615,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3605,7 +3626,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3627,7 +3648,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3638,7 +3659,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3649,7 +3670,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3660,7 +3681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3671,7 +3692,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3682,7 +3703,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3693,7 +3714,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3704,7 +3725,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3715,7 +3736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3726,7 +3747,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3737,7 +3758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3748,7 +3769,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3759,7 +3780,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3770,7 +3791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3792,7 +3813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3803,7 +3824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3814,7 +3835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3825,7 +3846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3836,7 +3857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3847,7 +3868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3858,7 +3879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3869,7 +3890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3880,7 +3901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3891,7 +3912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3902,7 +3923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3924,7 +3945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3935,7 +3956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3946,7 +3967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3957,7 +3978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3968,7 +3989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3979,7 +4000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3990,7 +4011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -4001,7 +4022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -4012,7 +4033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4023,7 +4044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -4034,7 +4055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -4045,7 +4066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -4056,7 +4077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4067,7 +4088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4078,7 +4099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4089,7 +4110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4100,7 +4121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -4111,7 +4132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -4122,7 +4143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -4144,7 +4165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -4155,7 +4176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -4166,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -4177,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -4188,7 +4209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -4199,7 +4220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4</v>
       </c>
@@ -4210,7 +4231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4232,7 +4253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>4</v>
       </c>
@@ -4243,7 +4264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -4254,7 +4275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>4</v>
       </c>
@@ -4265,7 +4286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -4276,7 +4297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4</v>
       </c>
@@ -4287,7 +4308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4298,7 +4319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4309,7 +4330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4320,7 +4341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -4331,7 +4352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -4342,7 +4363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -4353,7 +4374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -4364,7 +4385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -4375,7 +4396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -4386,7 +4407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -4397,7 +4418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -4408,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -4419,7 +4440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -4430,7 +4451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -4441,7 +4462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -4452,7 +4473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -4463,7 +4484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -4474,7 +4495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4485,7 +4506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4496,7 +4517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -4507,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4518,7 +4539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4529,7 +4550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4546,14 +4567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4564,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4575,7 +4596,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4586,7 +4607,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4597,7 +4618,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4608,7 +4629,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4619,7 +4640,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4630,7 +4651,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4641,7 +4662,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4652,7 +4673,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4663,7 +4684,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4674,7 +4695,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4685,7 +4706,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4696,7 +4717,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4707,7 +4728,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4718,7 +4739,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4729,7 +4750,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4740,7 +4761,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4751,7 +4772,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4762,7 +4783,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4773,7 +4794,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4784,7 +4805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4795,7 +4816,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4806,7 +4827,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4817,7 +4838,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4828,7 +4849,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4839,7 +4860,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4850,7 +4871,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4861,7 +4882,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4872,7 +4893,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4883,7 +4904,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4894,7 +4915,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4905,7 +4926,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4916,7 +4937,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4927,7 +4948,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4938,7 +4959,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4949,7 +4970,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4971,7 +4992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4982,7 +5003,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -4993,7 +5014,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5004,7 +5025,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5015,7 +5036,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5037,7 +5058,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5059,7 +5080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5070,7 +5091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5081,7 +5102,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5092,7 +5113,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5114,7 +5135,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5125,7 +5146,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5136,7 +5157,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -5147,7 +5168,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5158,7 +5179,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5169,7 +5190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5180,7 +5201,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -5191,7 +5212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -5202,7 +5223,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -5213,7 +5234,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5224,7 +5245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -5235,7 +5256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5246,7 +5267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -5257,7 +5278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -5268,7 +5289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -5279,7 +5300,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -5290,7 +5311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -5301,7 +5322,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -5312,7 +5333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -5323,7 +5344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5334,7 +5355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5345,7 +5366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -5356,7 +5377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5367,7 +5388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3</v>
       </c>
@@ -5378,7 +5399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3</v>
       </c>
@@ -5389,7 +5410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3</v>
       </c>
@@ -5400,7 +5421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5411,7 +5432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3</v>
       </c>
@@ -5422,7 +5443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5433,7 +5454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3</v>
       </c>
@@ -5444,7 +5465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -5455,7 +5476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -5466,7 +5487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -5477,7 +5498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -5488,7 +5509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -5499,7 +5520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -5510,7 +5531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -5521,7 +5542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -5532,7 +5553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -5543,7 +5564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -5554,7 +5575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -5565,7 +5586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -5576,7 +5597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -5587,7 +5608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -5598,7 +5619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -5609,7 +5630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -5620,7 +5641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -5631,7 +5652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -5642,7 +5663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -5653,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4</v>
       </c>
@@ -5664,7 +5685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -5675,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -5686,7 +5707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>4</v>
       </c>
@@ -5697,7 +5718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -5708,7 +5729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>4</v>
       </c>
@@ -5719,7 +5740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -5730,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4</v>
       </c>
@@ -5741,7 +5762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>4</v>
       </c>
@@ -5752,7 +5773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>4</v>
       </c>
@@ -5763,7 +5784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>4</v>
       </c>
@@ -5774,7 +5795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -5785,7 +5806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -5796,7 +5817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -5807,7 +5828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -5818,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -5829,7 +5850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -5840,7 +5861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -5851,7 +5872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -5862,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -5873,7 +5894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -5884,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -5895,7 +5916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -5906,7 +5927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -5917,7 +5938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -5928,7 +5949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -5939,7 +5960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -5950,7 +5971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -5961,7 +5982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -5972,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -5983,7 +6004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -6000,14 +6021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6029,7 +6050,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6040,7 +6061,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6051,7 +6072,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6062,7 +6083,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6073,7 +6094,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6084,7 +6105,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6095,7 +6116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6106,7 +6127,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6128,7 +6149,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6139,7 +6160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6150,7 +6171,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6161,7 +6182,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6172,7 +6193,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6183,7 +6204,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6194,7 +6215,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6205,7 +6226,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6216,7 +6237,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6227,7 +6248,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6238,7 +6259,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6249,7 +6270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6260,7 +6281,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6271,7 +6292,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6282,7 +6303,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6304,7 +6325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6315,7 +6336,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6326,7 +6347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6337,7 +6358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6348,7 +6369,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6359,7 +6380,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6370,7 +6391,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6381,7 +6402,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6392,7 +6413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6403,7 +6424,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6414,7 +6435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -6425,7 +6446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6436,7 +6457,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6447,7 +6468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -6458,7 +6479,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6469,7 +6490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -6480,7 +6501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6491,7 +6512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6502,7 +6523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6513,7 +6534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -6524,7 +6545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6535,7 +6556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -6546,7 +6567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -6557,7 +6578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6568,7 +6589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -6579,7 +6600,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -6590,7 +6611,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -6601,7 +6622,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -6612,7 +6633,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -6623,7 +6644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -6634,7 +6655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -6645,7 +6666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -6656,7 +6677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6667,7 +6688,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -6678,7 +6699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -6689,7 +6710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -6700,7 +6721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -6711,7 +6732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -6722,7 +6743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -6733,7 +6754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6744,7 +6765,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -6755,7 +6776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -6766,7 +6787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -6777,7 +6798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -6788,7 +6809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -6799,7 +6820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -6810,7 +6831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6821,7 +6842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3</v>
       </c>
@@ -6832,7 +6853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6843,7 +6864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3</v>
       </c>
@@ -6854,7 +6875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3</v>
       </c>
@@ -6865,7 +6886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3</v>
       </c>
@@ -6876,7 +6897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -6887,7 +6908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3</v>
       </c>
@@ -6898,7 +6919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -6909,7 +6930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -6920,7 +6941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6931,7 +6952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -6942,7 +6963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -6953,7 +6974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -6964,7 +6985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -6975,7 +6996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -6986,7 +7007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -6997,7 +7018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -7008,7 +7029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -7019,7 +7040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -7030,7 +7051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -7041,7 +7062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -7052,7 +7073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -7063,7 +7084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -7074,7 +7095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -7085,7 +7106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -7096,7 +7117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7107,7 +7128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4</v>
       </c>
@@ -7118,7 +7139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -7129,7 +7150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7140,7 +7161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7151,7 +7172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7162,7 +7183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>4</v>
       </c>
@@ -7173,7 +7194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -7184,7 +7205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4</v>
       </c>
@@ -7195,7 +7216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>4</v>
       </c>
@@ -7206,7 +7227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>4</v>
       </c>
@@ -7217,7 +7238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>4</v>
       </c>
@@ -7228,7 +7249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -7239,7 +7260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -7250,7 +7271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -7261,7 +7282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -7272,7 +7293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -7283,7 +7304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -7294,7 +7315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -7305,7 +7326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -7316,7 +7337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -7327,7 +7348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -7338,7 +7359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -7349,7 +7370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -7360,7 +7381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -7371,7 +7392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -7382,7 +7403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -7393,7 +7414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -7404,7 +7425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -7415,7 +7436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -7426,7 +7447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -7437,7 +7458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -7454,14 +7475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7472,7 +7493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7483,7 +7504,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7494,7 +7515,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7505,7 +7526,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7516,7 +7537,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7538,7 +7559,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7549,7 +7570,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7560,7 +7581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7571,7 +7592,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7582,7 +7603,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7593,7 +7614,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7604,7 +7625,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7615,7 +7636,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7626,7 +7647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7637,7 +7658,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7648,7 +7669,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7659,7 +7680,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7670,7 +7691,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7681,7 +7702,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7692,7 +7713,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7703,7 +7724,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7714,7 +7735,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7725,7 +7746,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7736,7 +7757,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7747,7 +7768,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7758,7 +7779,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7769,7 +7790,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7780,7 +7801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7791,7 +7812,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7802,7 +7823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7813,7 +7834,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7824,7 +7845,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7835,7 +7856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7846,7 +7867,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7857,7 +7878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7868,7 +7889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7879,7 +7900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7890,7 +7911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -7901,7 +7922,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -7912,7 +7933,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -7923,7 +7944,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -7934,7 +7955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -7945,7 +7966,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -7956,7 +7977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -7967,7 +7988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -7978,7 +7999,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -7989,7 +8010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8000,7 +8021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8011,7 +8032,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8022,7 +8043,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -8033,7 +8054,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -8044,7 +8065,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -8055,7 +8076,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -8066,7 +8087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -8077,7 +8098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -8088,7 +8109,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -8099,7 +8120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -8110,7 +8131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -8121,7 +8142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -8132,7 +8153,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -8143,7 +8164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -8154,7 +8175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -8165,7 +8186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -8176,7 +8197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -8187,7 +8208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -8198,7 +8219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -8209,7 +8230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -8220,7 +8241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -8231,7 +8252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -8242,7 +8263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -8253,7 +8274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -8264,7 +8285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -8275,7 +8296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3</v>
       </c>
@@ -8286,7 +8307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3</v>
       </c>
@@ -8297,7 +8318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3</v>
       </c>
@@ -8308,7 +8329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3</v>
       </c>
@@ -8319,7 +8340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3</v>
       </c>
@@ -8330,7 +8351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -8341,7 +8362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3</v>
       </c>
@@ -8352,7 +8373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -8363,7 +8384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -8374,7 +8395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -8385,7 +8406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -8396,7 +8417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -8407,7 +8428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -8418,7 +8439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -8429,7 +8450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -8440,7 +8461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -8451,7 +8472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -8462,7 +8483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -8473,7 +8494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -8484,7 +8505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -8495,7 +8516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -8506,7 +8527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -8517,7 +8538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -8528,7 +8549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -8539,7 +8560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -8550,7 +8571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -8561,7 +8582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4</v>
       </c>
@@ -8572,7 +8593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -8583,7 +8604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -8594,7 +8615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>4</v>
       </c>
@@ -8605,7 +8626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -8616,7 +8637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>4</v>
       </c>
@@ -8627,7 +8648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -8638,7 +8659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4</v>
       </c>
@@ -8649,7 +8670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>4</v>
       </c>
@@ -8660,7 +8681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>4</v>
       </c>
@@ -8671,7 +8692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>4</v>
       </c>
@@ -8682,7 +8703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -8693,7 +8714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -8704,7 +8725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -8715,7 +8736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -8726,7 +8747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -8737,7 +8758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -8748,7 +8769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -8759,7 +8780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -8770,7 +8791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -8781,7 +8802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -8792,7 +8813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -8803,7 +8824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -8814,7 +8835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -8825,7 +8846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -8836,7 +8857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -8847,7 +8868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -8858,7 +8879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -8869,7 +8890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -8880,7 +8901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -8891,7 +8912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -8908,14 +8929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8926,7 +8947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8937,7 +8958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8948,7 +8969,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8959,7 +8980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8970,7 +8991,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8981,7 +9002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8992,7 +9013,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9003,7 +9024,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9014,7 +9035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9025,7 +9046,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9036,7 +9057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9047,7 +9068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9058,7 +9079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9069,7 +9090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9080,7 +9101,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -9091,7 +9112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9102,7 +9123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -9113,7 +9134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -9124,7 +9145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -9135,7 +9156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9146,7 +9167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9157,7 +9178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9168,7 +9189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9179,7 +9200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9190,7 +9211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -9201,7 +9222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -9212,7 +9233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9223,7 +9244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -9234,7 +9255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -9245,7 +9266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -9256,7 +9277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -9267,7 +9288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9278,7 +9299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9289,7 +9310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9300,7 +9321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9311,7 +9332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9322,7 +9343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -9333,7 +9354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -9344,7 +9365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9355,7 +9376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -9366,7 +9387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -9377,7 +9398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -9388,7 +9409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -9399,7 +9420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -9410,7 +9431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -9421,7 +9442,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -9432,7 +9453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -9443,7 +9464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -9454,7 +9475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -9465,7 +9486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -9476,7 +9497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2</v>
       </c>
@@ -9487,7 +9508,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2</v>
       </c>
@@ -9498,7 +9519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2</v>
       </c>
@@ -9509,7 +9530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2</v>
       </c>
@@ -9520,7 +9541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2</v>
       </c>
@@ -9531,7 +9552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2</v>
       </c>
@@ -9542,7 +9563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2</v>
       </c>
@@ -9553,7 +9574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2</v>
       </c>
@@ -9564,7 +9585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2</v>
       </c>
@@ -9575,7 +9596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -9586,7 +9607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -9597,7 +9618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -9608,7 +9629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>2</v>
       </c>
@@ -9619,7 +9640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>2</v>
       </c>
@@ -9630,7 +9651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -9641,7 +9662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -9652,7 +9673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>2</v>
       </c>
@@ -9663,7 +9684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>2</v>
       </c>
@@ -9674,7 +9695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -9685,7 +9706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -9696,7 +9717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -9707,7 +9728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -9718,7 +9739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3</v>
       </c>
@@ -9729,7 +9750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3</v>
       </c>
@@ -9740,7 +9761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3</v>
       </c>
@@ -9751,7 +9772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3</v>
       </c>
@@ -9762,7 +9783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3</v>
       </c>
@@ -9773,7 +9794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3</v>
       </c>
@@ -9784,7 +9805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -9795,7 +9816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3</v>
       </c>
@@ -9806,7 +9827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9817,7 +9838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3</v>
       </c>
@@ -9828,7 +9849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3</v>
       </c>
@@ -9839,7 +9860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3</v>
       </c>
@@ -9850,7 +9871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -9861,7 +9882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3</v>
       </c>
@@ -9872,7 +9893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -9883,7 +9904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3</v>
       </c>
@@ -9894,7 +9915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3</v>
       </c>
@@ -9905,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3</v>
       </c>
@@ -9916,7 +9937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4</v>
       </c>
@@ -9927,7 +9948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>4</v>
       </c>
@@ -9938,7 +9959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -9949,7 +9970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>4</v>
       </c>
@@ -9960,7 +9981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>4</v>
       </c>
@@ -9971,7 +9992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>4</v>
       </c>
@@ -9982,7 +10003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>4</v>
       </c>
@@ -9993,7 +10014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>4</v>
       </c>
@@ -10004,7 +10025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>4</v>
       </c>
@@ -10015,7 +10036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>4</v>
       </c>
@@ -10026,7 +10047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>4</v>
       </c>
@@ -10037,7 +10058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>4</v>
       </c>
@@ -10048,7 +10069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>4</v>
       </c>
@@ -10059,7 +10080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>4</v>
       </c>
@@ -10070,7 +10091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>4</v>
       </c>
@@ -10081,7 +10102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>4</v>
       </c>
@@ -10092,7 +10113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>4</v>
       </c>
@@ -10103,7 +10124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>4</v>
       </c>
@@ -10114,7 +10135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>4</v>
       </c>
@@ -10125,7 +10146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>4</v>
       </c>
@@ -10136,7 +10157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -10147,7 +10168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -10158,7 +10179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -10169,7 +10190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -10180,7 +10201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -10191,7 +10212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -10202,7 +10223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -10213,7 +10234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -10224,7 +10245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -10235,7 +10256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -10246,7 +10267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -10257,7 +10278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -10268,7 +10289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -10279,7 +10300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -10290,7 +10311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -10301,7 +10322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -10312,7 +10333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -10323,7 +10344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -10334,7 +10355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -10345,7 +10366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>

--- a/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/Fakespeak_ngrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/alp11_sfu_ca/Documents/SFU/2. Terms/09. 2025_Fall/Discourse Lab/Projects/fake_news_over_time/data/Fakespeak-ENG/Analysis_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_51F078ACE1F5B5743BFF8B60658A41F86337DEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26257BE3-5BD6-4230-A0C0-D0DCB22482E0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_51F078ACE1D5BF41873E9560658A41F86337DEB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A0C4669-DE1D-4F8B-AE35-2ED9EACE3CE6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -1657,16 +1657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.9296875" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3118,9 +3118,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4572,9 +4572,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -6026,9 +6026,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -7480,9 +7480,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -8932,11 +8932,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8969,7 +8971,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8991,7 +8993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9024,7 +9026,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9046,7 +9048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9068,7 +9070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9079,7 +9081,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9090,7 +9092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -9112,7 +9114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -9134,7 +9136,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -9156,7 +9158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9178,7 +9180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9211,7 +9213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -9233,7 +9235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9244,7 +9246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -9255,7 +9257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -9277,7 +9279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9310,7 +9312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9343,7 +9345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -9354,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -9365,7 +9367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -9387,7 +9389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -9398,7 +9400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -9431,7 +9433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -9442,7 +9444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -9453,7 +9455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -9464,7 +9466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -9486,7 +9488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -9497,7 +9499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -9508,7 +9510,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -9552,7 +9554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -9585,7 +9587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -9596,7 +9598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -9618,7 +9620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -9629,7 +9631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -9651,7 +9653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -9662,7 +9664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -9673,7 +9675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -9684,7 +9686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -9695,7 +9697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -9706,7 +9708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -9739,7 +9741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -9772,7 +9774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -9794,7 +9796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -9805,7 +9807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -9816,7 +9818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -9827,7 +9829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -9849,7 +9851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -9860,7 +9862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -9882,7 +9884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -9904,7 +9906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -9926,7 +9928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -9959,7 +9961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -9992,7 +9994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -10014,7 +10016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -10025,7 +10027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -10036,7 +10038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -10080,7 +10082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -10091,7 +10093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -10102,7 +10104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -10113,7 +10115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -10179,7 +10181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -10190,7 +10192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -10223,7 +10225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -10256,7 +10258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -10267,7 +10269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -10278,7 +10280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -10300,7 +10302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -10311,7 +10313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -10322,7 +10324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -10333,7 +10335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -10355,7 +10357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -10366,7 +10368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
